--- a/resources/Excel/TestData1.xlsx
+++ b/resources/Excel/TestData1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukil\eclipse-workspace\HotelApp\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D9F588-8883-4B55-A96D-BE88178981FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9CC6E-8AEA-44C0-8265-BE36E9C13327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E71BDF58-4BF8-499F-9F0D-F2B7B4F90E92}"/>
   </bookViews>
@@ -215,16 +215,16 @@
     <t>Select Hotel</t>
   </si>
   <si>
-    <t>JohnDoe001</t>
-  </si>
-  <si>
     <t>JaneDoe001</t>
   </si>
   <si>
-    <t>johndoe001@gmail.com</t>
-  </si>
-  <si>
     <t>johndoe001.com</t>
+  </si>
+  <si>
+    <t>JohnDoe002</t>
+  </si>
+  <si>
+    <t>johndoe002@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
@@ -667,7 +667,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>5</v>
@@ -679,7 +679,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>

--- a/resources/Excel/TestData1.xlsx
+++ b/resources/Excel/TestData1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukil\eclipse-workspace\HotelApp\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27A9CC6E-8AEA-44C0-8265-BE36E9C13327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1FDCA8-2AC4-46A1-AB00-8130D6ED16B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E71BDF58-4BF8-499F-9F0D-F2B7B4F90E92}"/>
+    <workbookView xWindow="4008" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{E71BDF58-4BF8-499F-9F0D-F2B7B4F90E92}"/>
   </bookViews>
   <sheets>
     <sheet name="NewRegisterUserCredentials" sheetId="1" r:id="rId1"/>
@@ -221,10 +221,10 @@
     <t>johndoe001.com</t>
   </si>
   <si>
-    <t>JohnDoe002</t>
-  </si>
-  <si>
-    <t>johndoe002@gmail.com</t>
+    <t>johndoe003@gmail.com</t>
+  </si>
+  <si>
+    <t>JohnDoe003</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>

--- a/resources/Excel/TestData1.xlsx
+++ b/resources/Excel/TestData1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mukil\eclipse-workspace\HotelApp\resources\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1FDCA8-2AC4-46A1-AB00-8130D6ED16B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9FC5636-1B67-4C9F-8FD9-791598CD27CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4008" yWindow="3708" windowWidth="17280" windowHeight="8880" xr2:uid="{E71BDF58-4BF8-499F-9F0D-F2B7B4F90E92}"/>
   </bookViews>
@@ -221,10 +221,10 @@
     <t>johndoe001.com</t>
   </si>
   <si>
-    <t>johndoe003@gmail.com</t>
-  </si>
-  <si>
-    <t>JohnDoe003</t>
+    <t>JohnDoe006</t>
+  </si>
+  <si>
+    <t>johndoe006@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>5</v>
@@ -656,7 +656,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>11</v>
